--- a/biology/Botanique/Montiaceae/Montiaceae.xlsx
+++ b/biology/Botanique/Montiaceae/Montiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Montiaceae (Montiacées) sont une famille de plantes dicotylédones. 
 Ce sont des plantes herbacées et des arbustes, glabres, à feuilles souvent combinées en rosettes, originaires d’Amérique et d’Océanie.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Montia nommé en hommage au botaniste italien Giuseppe Monti (1682–1760),
-professeur et directeur du jardin botanique de Bologne[1].
+professeur et directeur du jardin botanique de Bologne.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (24 Juillet 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (24 Juillet 2023) :
 Calandrinia
 Calyptridium (en)
 Cistanthe (en)
@@ -562,8 +578,8 @@
 Parakeelya
 Phemeranthus
 Silvaea
-À part Montia, l'Angiosperm Phylogeny Website                        (3 mai 2010)[3] et le NCBI  (3 mai 2010)[4] plaçaient ces genres dans la famille des Portulacaceae.
-Selon GRIN            (3 mai 2010)[5] :
+À part Montia, l'Angiosperm Phylogeny Website                        (3 mai 2010) et le NCBI  (3 mai 2010) plaçaient ces genres dans la famille des Portulacaceae.
+Selon GRIN            (3 mai 2010) :
 Calandrinia Kunth
 Claytonia L.
 Lenzia Phil. (espèces inconnues)
@@ -602,9 +618,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (2 Sep 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (2 Sep 2010) :
 genre Calandrinia
 Calandrinia acaulis
 Calandrinia affinis
